--- a/Crawling_Twitter Academic Track/Twitter_data.xlsx
+++ b/Crawling_Twitter Academic Track/Twitter_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonwookim/Desktop/Paper/[Github]/PR_education_Python/Crawling_Twitter Academic Track/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5CEC4-6342-4F42-9FEC-1B7460894DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18900" yWindow="1380" windowWidth="33140" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -31,21 +25,24 @@
     <t>created_at</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>retweet_count</t>
+  </si>
+  <si>
+    <t>reply_count</t>
+  </si>
+  <si>
+    <t>like_count</t>
+  </si>
+  <si>
+    <t>quote_count</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>retweet_count</t>
-  </si>
-  <si>
-    <t>reply_count</t>
-  </si>
-  <si>
-    <t>like_count</t>
-  </si>
-  <si>
-    <t>quote_count</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -784,27 +781,37 @@
     <t>2022-01-01T01:21:08.000Z</t>
   </si>
   <si>
-    <t>@Iovehearts is it a pension scheme with your employer, and AVC, or a PRSA / RAC?</t>
-  </si>
-  <si>
-    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya To God everything in prayer 🙏</t>
-  </si>
-  <si>
-    <t>RT @PRSA_Roadsafety: Let be honest PSV drivers are the most dangerous drivers on our roads but cos they are protected they do whatever they…</t>
+    <t>replied_to</t>
+  </si>
+  <si>
+    <t>retweeted</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>quoted</t>
+  </si>
+  <si>
+    <t>I didn’t realised you got tax credits for lying into a private pension?? And I have been for the last two years lol I’m just after adding it to revenue now, will I get some gorge money back? X</t>
+  </si>
+  <si>
+    <t>ACCIDENT ALERT EIGHT-Dead this morning at Musembe along Webuye - Eldoret Hwy after a shuttle from Bungoma headed Nairobi rams into two parked trucks . https://t.co/hms8A6Q8BX</t>
+  </si>
+  <si>
+    <t>RT @PRSA_Roadsafety Let be honest PSV drivers are the most dangerous drivers on our roads but cos they are protected they do whatever they feel like wasting lives of others 😢😥 https://t.co/CPRRWvkQPi</t>
   </si>
   <si>
     <t>You’ve heard of the “Great Resignation,” but are you ready to be a part of the “Great Retention?” Offering PRSA memberships to your employees is a great way to incentivize and develop your PR team! Learnn more&amp;gt;&amp;gt; https://t.co/rKlTLP2isM https://t.co/ndPJ7caQkd</t>
   </si>
   <si>
-    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya It was a tragic as we lost our sister cousin(Margaret) of NYS together with her sibling may their souls rest in peace😭😭</t>
-  </si>
-  <si>
-    <t>RT @PRSA_Roadsafety: Chaotic, Madness , craziness due to total lack of leadership=ugali roads=lot of blood and tears on our roads https://t…</t>
-  </si>
-  <si>
-    <t>RT @careersingov: .@ValleyMetro is #hiring a MARKETING PRODUCTION PROGRAM SUPERVISOR. Don’t miss this great #job! 
+    <t>RT @PRSA_Roadsafety Chaotic, Madness , craziness due to total lack of leadership=ugali roads=lot of blood and tears on our roads https://t.co/W9T3gKJddO</t>
+  </si>
+  <si>
+    <t>RT @careersingov .@ValleyMetro is #hiring a MARKETING PRODUCTION PROGRAM SUPERVISOR. Don’t miss this great #job! 
 -Bach degree 
--4+ yrs ex…</t>
+-4+ yrs exp in public sector PR
+@PRSA @IABC #Adminjobs #JobOpening #nowhiring #jobalert https://t.co/xgZB7yhbui</t>
   </si>
   <si>
     <t>.@ValleyMetro is #hiring a MARKETING PRODUCTION PROGRAM SUPERVISOR. Don’t miss this great #job! 
@@ -813,17 +820,18 @@
 @PRSA @IABC #Adminjobs #JobOpening #nowhiring #jobalert https://t.co/xgZB7yhbui</t>
   </si>
   <si>
-    <t>RT @PRSA: As we close out 2021, we want to take the opportunity to thank 2021 PRSA Chair Michelle Olson, APR, for all her efforts this year…</t>
-  </si>
-  <si>
-    <t>RT @PRSA: Happy New Year! Looking forward to a brighter year ahead and wishing you nothing but success in 2022. https://t.co/ulDLiD58hU</t>
-  </si>
-  <si>
-    <t>RT @usakenshin: @Prsa_samurai @nazanin_samurai Without appreciating the little things in life,
- One day you will look back and understand…</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety But why aren't people talking abot it.. Sisi road safety ambassadors are left fighting battles ambazo passengers wangeweza zuia to start with</t>
+    <t>RT @PRSA As we close out 2021, we want to take the opportunity to thank 2021 PRSA Chair Michelle Olson, APR, for all her efforts this year. Her impact on PRSA &amp;amp; the profession is far reaching, and we look forward to the continued work she will do with PRSA in 2022 as Immediate Past Chair. https://t.co/ceXqYjAOjx</t>
+  </si>
+  <si>
+    <t>RT @PRSA Happy New Year! Looking forward to a brighter year ahead and wishing you nothing but success in 2022. https://t.co/ulDLiD58hU</t>
+  </si>
+  <si>
+    <t>RT @usakenshin @Prsa_samurai @nazanin_samurai Without appreciating the little things in life,
+ One day you will look back and understand
+ How big.</t>
+  </si>
+  <si>
+    <t>Let be honest PSV drivers are the most dangerous drivers on our roads but cos they are protected they do whatever they feel like wasting lives of others 😢😥 https://t.co/CPRRWvkQPi</t>
   </si>
   <si>
     <t>@Prsa_samurai @nazanin_samurai Without appreciating the little things in life,
@@ -831,73 +839,39 @@
  How big.</t>
   </si>
   <si>
-    <t>RT @papafavour: Many feared dead this morning at Musembe along Webuye - Eldoret Highway after a shuttle (2NK Sacco) from Bungoma headed Nai…</t>
+    <t>RT @papafavour Many feared dead this morning at Musembe along Webuye - Eldoret Highway after a shuttle (2NK Sacco) from Bungoma headed Nairobi rammed into two parked trucks.
+@Ma3Route @KenyanTraffic @sikikasafety @AccidentAlert_K @PRSA_Roadsafety @motoristsoffice @KTA_Kenya @NyanzaTraffic https://t.co/xz6CJSyH32</t>
   </si>
   <si>
     <t>Many feared dead this morning at Musembe along Webuye - Eldoret Highway after a shuttle (2NK Sacco) from Bungoma headed Nairobi rammed into two parked trucks.
 @Ma3Route @KenyanTraffic @sikikasafety @AccidentAlert_K @PRSA_Roadsafety @motoristsoffice @KTA_Kenya @NyanzaTraffic https://t.co/xz6CJSyH32</t>
   </si>
   <si>
-    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya Speed kills</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety @AccidentAlert_K Unfortunately it will add to the death statistics without repercussions.</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety @AccidentAlert_K They are purely reckless and don't care about other road users or passengers.</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety Not PSV but rogue drivers are dangerous. They are not protected, it’s the corruption that lets them go unpunished.</t>
-  </si>
-  <si>
     <t>An accident on the Nairobi Nakuru highway, about a kilometer from the Soko mjinga area. @PRSA_Roadsafety https://t.co/TFGM7q5HGt</t>
   </si>
   <si>
-    <t>@AccidentAlert_K @IamKisumu042 @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya So sad</t>
-  </si>
-  <si>
-    <t>@mgmulama @AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya You're right about the speed ... this guy must have been doing 150 for the mat to look like that. But there is no way it makes sense for trucks to park in a whole lane with no reflectors. That is a serious offense. The speed didn't help, but the trucks are more responsible here.</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety For this reason, our roads are death trap!</t>
-  </si>
-  <si>
-    <t>@NyanzaTraffic @sikikasafety @road_driving @ntsa_kenya @PRSA_Roadsafety @roadsvolunteer @motoristsoffice @KTA_Kenya This is sad.
-We must #share the #road #safely
-#LifeisPrecious</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety Nobody will be held accountable for such.</t>
-  </si>
-  <si>
     <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya Speed kills. There are bumps at the place and it's a shopping center with trucks parked especially morning hours .... See buildings both sides.</t>
   </si>
   <si>
-    <t>@PRSA_Roadsafety These are irresponsinle people driving these machines...drive @ 80kph and live live..rip to them..so sad😩</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety You are doing a good job but once the Nairobi- Mau Summit road construction begin we don’t want “smart “ Kenyans with their usual politics like they did with SGR and Expressway. Better roads will cut down accidents by 70%</t>
-  </si>
-  <si>
-    <t>RT @PRSA_Roadsafety: As usual we start counting people dying on our roads question is for how long???😢😥 https://t.co/181wOJoHW4</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety The problem was the stationary truck on the road. Hawa psv drivers have families too hence can't be as reckless as you want to put it.</t>
-  </si>
-  <si>
-    <t>RT @PRSA_Roadsafety: @ntsa_kenya @IG_NPS @NPSC_KE pls let have a will to reduce blood and tears on our roads nothing about new year it been…</t>
-  </si>
-  <si>
-    <t>@PRSA_Roadsafety It's an accident which needs to be investigated before concluding the driver of BMW was on the wrong.</t>
-  </si>
-  <si>
-    <t>RT @PRSA_Roadsafety: Boda industry been given thee licence to kill 😥</t>
-  </si>
-  <si>
-    <t>RT @pr_jobs: [USA] Creative Director (Consumer Public Relations) - ICF - Chicago, IL https://t.co/Evwc86Km3k #pr #jobs</t>
-  </si>
-  <si>
-    <t>RT @pr_jobs: [USA] Public Relations Specialist - ICF - Arlington, VA https://t.co/kIV2TlW54c #pr #jobs</t>
+    <t>#NyanzaTraffic ACCIDENT ALERT EIGHT-Dead this morning at Musembe along Webuye - Eldoret Hwy after a shuttle from Bungoma headed Nairobi rams into two parked trucks. https://t.co/CG5iG8dCFZ</t>
+  </si>
+  <si>
+    <t>RT @PRSA_Roadsafety As usual we start counting people dying on our roads question is for how long???😢😥 https://t.co/181wOJoHW4</t>
+  </si>
+  <si>
+    <t>RT @PRSA_Roadsafety @ntsa_kenya @IG_NPS @NPSC_KE pls let have a will to reduce blood and tears on our roads nothing about new year it been going for a long time😢😥 https://t.co/PGRztoGXpQ</t>
+  </si>
+  <si>
+    <t>Dabble sadness losing your cousin and knowing the killer might walk free just cos of money 😥😥🙏🏾 https://t.co/U9Es7TZUqT</t>
+  </si>
+  <si>
+    <t>RT @PRSA_Roadsafety Boda industry been given thee licence to kill 😥 https://t.co/qsItUjrUac</t>
+  </si>
+  <si>
+    <t>RT @pr_jobs [USA] Creative Director (Consumer Public Relations) - ICF - Chicago, IL https://t.co/Evwc86Km3k #pr #jobs</t>
+  </si>
+  <si>
+    <t>RT @pr_jobs [USA] Public Relations Specialist - ICF - Arlington, VA https://t.co/kIV2TlW54c #pr #jobs</t>
   </si>
   <si>
     <t>[USA] Creative Director (Consumer Public Relations) - ICF - Chicago, IL https://t.co/Evwc86Km3k #pr #jobs</t>
@@ -906,13 +880,13 @@
     <t>[USA] Public Relations Specialist - ICF - Arlington, VA https://t.co/kIV2TlW54c #pr #jobs</t>
   </si>
   <si>
-    <t>RT @PRaccred: Happy New Year! Is earning the APR credential on your #NewYearsResolution list? Begin your journey at https://t.co/andx2JI2vp…</t>
+    <t>RT @PRaccred Happy New Year! Is earning the APR credential on your #NewYearsResolution list? Begin your journey at https://t.co/andx2JI2vp. https://t.co/j5LLbWEWok</t>
   </si>
   <si>
     <t>Happy New Year! Is earning the APR credential on your #NewYearsResolution list? Begin your journey at https://t.co/andx2JI2vp. https://t.co/j5LLbWEWok</t>
   </si>
   <si>
-    <t>Cheers to 2022! We hope all of our members, sponsors and partners experience the best year ahead both personally and professionally. #HappyNewYear https://t.co/04ccZepvRU</t>
+    <t>Happy New Year! Looking forward to a brighter year ahead and wishing you nothing but success in 2022. https://t.co/ulDLiD58hU</t>
   </si>
   <si>
     <t>[USA] Public Relations Specialist - Undisclosed - Santa Ana, CA https://t.co/S7MASAFZ9G #pr #jobs</t>
@@ -930,7 +904,7 @@
     <t>2022. I just renewed my @prsasv @PRSA membership. Hello 👋 to learning and meeting new &amp;amp; old friends. #pr #Communication</t>
   </si>
   <si>
-    <t>RT @NHSLincsCCG: We've opened up more vaccination slots for 12-15 year-olds at PRSA, Boston, between 4pm-7pm on Sunday 2nd, Monday 3rd and…</t>
+    <t>RT @NHSLincsCCG We've opened up more vaccination slots for 12-15 year-olds at PRSA, Boston, between 4pm-7pm on Sunday 2nd, Monday 3rd and Tuesday 4th January, for first and second vaccinations on a walk-in basis.  Please remember to bring a parent/guardian with you to consent. https://t.co/r6Pmmhq7ek</t>
   </si>
   <si>
     <t>Happy New Year! Here’s to 2022 🎉🎆
@@ -942,28 +916,17 @@
  But what is good is always beautiful…</t>
   </si>
   <si>
-    <t>RT @prsa_pag: #HappyNewYear to our #PAG members! As we begin a #newyear, may it be filled with joy, prosperity, health, &amp;amp; adventure. From @…</t>
-  </si>
-  <si>
-    <t>Happy New Year from PRSA Memphis! https://t.co/wWcvhq7F35</t>
-  </si>
-  <si>
-    <t>RT @prsa_pag: 2021 was one for the books! As we put a bow on it, we look back at the year that was for @prsa_pag. We can't wait to see what…</t>
-  </si>
-  <si>
-    <t>@JGfromOC @edzitron Yeah I’ve never seen that before. Maybe they pass it out at all the PRSA events I never attend?</t>
-  </si>
-  <si>
-    <t>Happy New Year to our EC section members! https://t.co/galC3gvOq3</t>
+    <t>RT @prsa_pag #HappyNewYear to our #PAG members! As we begin a #newyear, may it be filled with joy, prosperity, health, &amp;amp; adventure. From @prsa_pag, 2022 let's move forward!
+#publicrelations #communications #publicaffairs #government #communityrelations #newyear2022 #newyearsday https://t.co/1vLmnpj8Z7</t>
+  </si>
+  <si>
+    <t>RT @prsa_pag 2021 was one for the books! As we put a bow on it, we look back at the year that was for @prsa_pag. We can't wait to see what 2022 has in store. See you there! #yearinreview #HappyNewYear #publicaffairs #government #publicrelations https://t.co/3vyu92q7eY</t>
+  </si>
+  <si>
+    <t>@edzitron wait, we have a code of ethics?</t>
   </si>
   <si>
     <t>Happy new year from PRSA Iowa! We can't wait to see what 2022 brings! https://t.co/GFe2bM9F1J</t>
-  </si>
-  <si>
-    <t>Happy New Year! https://t.co/T2MTsWYwEu</t>
-  </si>
-  <si>
-    <t>Happy New Year! Looking forward to a brighter year ahead and wishing you nothing but success in 2022. https://t.co/ulDLiD58hU</t>
   </si>
   <si>
     <t>Here's to excellent health and amazing wealth in 2022.🙏🏾 
@@ -974,25 +937,26 @@
 #publicrelations #communications #publicaffairs #government #communityrelations #newyear2022 #newyearsday https://t.co/1vLmnpj8Z7</t>
   </si>
   <si>
-    <t>Still on with @Payoneer @CJAffiliateES and all things PR @PRSA 
-Visit us for more details: https://t.co/VSy8f4clBx
-Precious Soul Tanzania "redefining luxury with a personal touch" https://t.co/SCaUGGhOhN https://t.co/pGjTBXCN0g</t>
-  </si>
-  <si>
-    <t>@jacksantucci @Melway_27_J3 @GreenPartyUS In Australia the Greens were the beneficiary of a flawed voting system that distorts the voters intention. 
-Australia should implement a re-iterative counting system or adopt a party list system.   The #PRSA does not use Proportional Representation to elect its National executive</t>
-  </si>
-  <si>
-    <t>RT @PRSA_SA: Hello 2️⃣0️⃣2️⃣2️⃣ 💫🥂 Wishing everyone a Happy #NewYear! 🎉 https://t.co/VqwJaiYQkd</t>
-  </si>
-  <si>
-    <t>RT @pr_jobs: [USA] Public Relations (PR) Specialist - Terran Orbital - Boca Raton, FL https://t.co/7ZC0D7iijX #pr #jobs</t>
+    <t>Hi,
+Payoneer helps me run my global business, and I believe Payoneer can help you too.
+Sign up, try it, and we can both get a 25 USD reward!
+Check it out: 
+https://t.co/yDPs6h7YFq</t>
+  </si>
+  <si>
+    <t>The @GreenPartyUS should be leading on PR. Some Congressional Democrats would be perfectly willing to work with them. But it’s up to Greens to signal they’d be coalition partners. Reform won’t come from a single party alone... nor from a bipartisan coalition. Buy my book in 2022.</t>
+  </si>
+  <si>
+    <t>RT @PRSA_SA Hello 2️⃣0️⃣2️⃣2️⃣ 💫🥂 Wishing everyone a Happy #NewYear! 🎉 https://t.co/VqwJaiYQkd</t>
+  </si>
+  <si>
+    <t>RT @pr_jobs [USA] Public Relations (PR) Specialist - Terran Orbital - Boca Raton, FL https://t.co/7ZC0D7iijX #pr #jobs</t>
   </si>
   <si>
     <t>[USA] Public Relations (PR) Specialist - Terran Orbital - Boca Raton, FL https://t.co/7ZC0D7iijX #pr #jobs</t>
   </si>
   <si>
-    <t>RT @PRSAHealth: Happy New Year to PRSA Health Academy members!  To @PRSA and PR pro’s in health care comms, make it your 2022 resolution to…</t>
+    <t>RT @PRSAHealth Happy New Year to PRSA Health Academy members!  To @PRSA and PR pro’s in health care comms, make it your 2022 resolution to join the Health Academy! https://t.co/hMhxAwfTTe https://t.co/ZYAdZoFR07</t>
   </si>
   <si>
     <t>Happy New Year to PRSA Health Academy members!  To @PRSA and PR pro’s in health care comms, make it your 2022 resolution to join the Health Academy! https://t.co/hMhxAwfTTe https://t.co/ZYAdZoFR07</t>
@@ -1001,13 +965,14 @@
     <t>#2022NewYear will be the most #eventfulperiod for #humanity #EconomicCrisis #crisisecosocial #TheEnd #civiliandeath #MONEY   https://t.co/pmyDcJZ7PD https://t.co/9d9opeEdAY</t>
   </si>
   <si>
-    <t>@TheMilanTooner You dine good prsa. Ye dine good</t>
+    <t>2021 was a bit of a rough one admittedly on a lot of fronts; spent the first half of the year jobless, a bit of a loudmouth dork, and letting things get the better of me.
+But with a new job, some great output and collabs this year, and an amazing first solo trip, not too bad. https://t.co/D763QG4a8R</t>
   </si>
   <si>
     <t>[USA] Public Relations Sr. Advisor for Infrastructure Solutions - Dell Technologies - Austin, TX https://t.co/yjGn8FyX8I #pr #jobs</t>
   </si>
   <si>
-    <t>RT @DWJr16: It has been my honor to serve as 2021 @PRSAHealth Academy chair.
+    <t>RT @DWJr16 It has been my honor to serve as 2021 @PRSAHealth Academy chair.
 @PRSA 
 https://t.co/ueXCK4k3M4 via @LinkedIn</t>
   </si>
@@ -1240,8 +1205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,14 +1269,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1358,7 +1315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1390,27 +1347,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,24 +1381,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1635,28 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,22 +1597,25 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1720,27 +1630,30 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K2">
-        <v>674</v>
+        <v>259</v>
+      </c>
+      <c r="K2" t="s">
+        <v>313</v>
       </c>
       <c r="L2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+      <c r="M2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>255</v>
@@ -1758,27 +1671,30 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3">
+        <v>260</v>
+      </c>
+      <c r="K3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>256</v>
@@ -1796,27 +1712,30 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K4">
-        <v>921</v>
+        <v>261</v>
+      </c>
+      <c r="K4" t="s">
+        <v>315</v>
       </c>
       <c r="L4">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>957</v>
+      </c>
+      <c r="M4">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>257</v>
@@ -1834,30 +1753,33 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K5">
+        <v>262</v>
+      </c>
+      <c r="K5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L5">
         <v>2405</v>
       </c>
-      <c r="L5">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1872,30 +1794,33 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6">
-        <v>400</v>
+        <v>260</v>
+      </c>
+      <c r="K6" t="s">
+        <v>317</v>
       </c>
       <c r="L6">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="M6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1910,30 +1835,33 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K7">
-        <v>3920</v>
+        <v>263</v>
+      </c>
+      <c r="K7" t="s">
+        <v>318</v>
       </c>
       <c r="L7">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4004</v>
+      </c>
+      <c r="M7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1948,30 +1876,33 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
-      </c>
-      <c r="K8">
-        <v>2512</v>
+        <v>264</v>
+      </c>
+      <c r="K8" t="s">
+        <v>319</v>
       </c>
       <c r="L8">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3257</v>
+      </c>
+      <c r="M8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1986,30 +1917,33 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
-      </c>
-      <c r="K9">
-        <v>101064</v>
+        <v>265</v>
+      </c>
+      <c r="K9" t="s">
+        <v>320</v>
       </c>
       <c r="L9">
-        <v>88489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>101045</v>
+      </c>
+      <c r="M9">
+        <v>88389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2024,27 +1958,30 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K10">
-        <v>66712</v>
+        <v>263</v>
+      </c>
+      <c r="K10" t="s">
+        <v>321</v>
       </c>
       <c r="L10">
-        <v>7634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68500</v>
+      </c>
+      <c r="M10">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>256</v>
@@ -2062,30 +1999,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
-      </c>
-      <c r="K11">
-        <v>576</v>
+        <v>261</v>
+      </c>
+      <c r="K11" t="s">
+        <v>322</v>
       </c>
       <c r="L11">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="M11">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2100,30 +2040,33 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
-      </c>
-      <c r="K12">
-        <v>182</v>
+        <v>266</v>
+      </c>
+      <c r="K12" t="s">
+        <v>323</v>
       </c>
       <c r="L12">
+        <v>181</v>
+      </c>
+      <c r="M12">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -2138,30 +2081,33 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K13">
-        <v>1817</v>
+        <v>267</v>
+      </c>
+      <c r="K13" t="s">
+        <v>324</v>
       </c>
       <c r="L13">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1815</v>
+      </c>
+      <c r="M13">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -2176,27 +2122,30 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
-      </c>
-      <c r="K14">
+        <v>267</v>
+      </c>
+      <c r="K14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L14">
         <v>2744</v>
       </c>
-      <c r="L14">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
         <v>256</v>
@@ -2214,30 +2163,33 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>337</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
+        <v>261</v>
+      </c>
+      <c r="K15" t="s">
+        <v>326</v>
       </c>
       <c r="L15">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="M15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2252,30 +2204,33 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>338</v>
-      </c>
-      <c r="K16">
-        <v>7103</v>
+        <v>268</v>
+      </c>
+      <c r="K16" t="s">
+        <v>327</v>
       </c>
       <c r="L16">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6116</v>
+      </c>
+      <c r="M16">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2290,30 +2245,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>339</v>
-      </c>
-      <c r="K17">
-        <v>1283</v>
+        <v>269</v>
+      </c>
+      <c r="K17" t="s">
+        <v>328</v>
       </c>
       <c r="L17">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1659</v>
+      </c>
+      <c r="M17">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2328,30 +2286,33 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>340</v>
-      </c>
-      <c r="K18">
-        <v>5408</v>
+        <v>270</v>
+      </c>
+      <c r="K18" t="s">
+        <v>329</v>
       </c>
       <c r="L18">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3329</v>
+      </c>
+      <c r="M18">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2366,30 +2327,33 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19">
-        <v>2024</v>
+        <v>271</v>
+      </c>
+      <c r="K19" t="s">
+        <v>330</v>
       </c>
       <c r="L19">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2770</v>
+      </c>
+      <c r="M19">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2404,30 +2368,33 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>342</v>
-      </c>
-      <c r="K20">
-        <v>13282</v>
+        <v>272</v>
+      </c>
+      <c r="K20" t="s">
+        <v>331</v>
       </c>
       <c r="L20">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13188</v>
+      </c>
+      <c r="M20">
+        <v>9908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2442,30 +2409,33 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>343</v>
-      </c>
-      <c r="K21">
-        <v>67</v>
+        <v>260</v>
+      </c>
+      <c r="K21" t="s">
+        <v>332</v>
       </c>
       <c r="L21">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="M21">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2480,30 +2450,33 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>344</v>
-      </c>
-      <c r="K22">
-        <v>409</v>
+        <v>269</v>
+      </c>
+      <c r="K22" t="s">
+        <v>333</v>
       </c>
       <c r="L22">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="M22">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2518,27 +2491,30 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
-      </c>
-      <c r="K23">
-        <v>70</v>
+        <v>269</v>
+      </c>
+      <c r="K23" t="s">
+        <v>334</v>
       </c>
       <c r="L23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="M23">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
         <v>256</v>
@@ -2556,30 +2532,33 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>346</v>
-      </c>
-      <c r="K24">
-        <v>3781</v>
+        <v>261</v>
+      </c>
+      <c r="K24" t="s">
+        <v>335</v>
       </c>
       <c r="L24">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3976</v>
+      </c>
+      <c r="M24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2594,30 +2573,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>347</v>
-      </c>
-      <c r="K25">
-        <v>13</v>
+        <v>269</v>
+      </c>
+      <c r="K25" t="s">
+        <v>336</v>
       </c>
       <c r="L25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2632,30 +2614,33 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>348</v>
-      </c>
-      <c r="K26">
-        <v>2248</v>
+        <v>273</v>
+      </c>
+      <c r="K26" t="s">
+        <v>337</v>
       </c>
       <c r="L26">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2222</v>
+      </c>
+      <c r="M26">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2670,30 +2655,33 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>349</v>
-      </c>
-      <c r="K27">
-        <v>908</v>
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>338</v>
       </c>
       <c r="L27">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+      <c r="M27">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2708,30 +2696,33 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>350</v>
-      </c>
-      <c r="K28">
-        <v>171</v>
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>339</v>
       </c>
       <c r="L28">
+        <v>178</v>
+      </c>
+      <c r="M28">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2746,30 +2737,33 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>351</v>
-      </c>
-      <c r="K29">
-        <v>826</v>
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>340</v>
       </c>
       <c r="L29">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+      <c r="M29">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2784,30 +2778,33 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>352</v>
-      </c>
-      <c r="K30">
-        <v>398</v>
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>341</v>
       </c>
       <c r="L30">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+      <c r="M30">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2822,30 +2819,33 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>353</v>
-      </c>
-      <c r="K31">
-        <v>1809</v>
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>342</v>
       </c>
       <c r="L31">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1882</v>
+      </c>
+      <c r="M31">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2860,30 +2860,33 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>354</v>
-      </c>
-      <c r="K32">
-        <v>152</v>
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>343</v>
       </c>
       <c r="L32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="M32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2898,30 +2901,33 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>355</v>
-      </c>
-      <c r="K33">
-        <v>63</v>
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>344</v>
       </c>
       <c r="L33">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M33">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2936,30 +2942,33 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>356</v>
-      </c>
-      <c r="K34">
-        <v>27</v>
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>345</v>
       </c>
       <c r="L34">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2974,30 +2983,33 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>357</v>
-      </c>
-      <c r="K35">
-        <v>469</v>
+        <v>276</v>
+      </c>
+      <c r="K35" t="s">
+        <v>346</v>
       </c>
       <c r="L35">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="M35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3012,30 +3024,33 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
-      </c>
-      <c r="K36">
-        <v>1546</v>
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>347</v>
       </c>
       <c r="L36">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1554</v>
+      </c>
+      <c r="M36">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3050,30 +3065,33 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>359</v>
-      </c>
-      <c r="K37">
-        <v>6841</v>
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>348</v>
       </c>
       <c r="L37">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6860</v>
+      </c>
+      <c r="M37">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3088,30 +3106,33 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
-      </c>
-      <c r="K38">
-        <v>1021</v>
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
       </c>
       <c r="L38">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+      <c r="M38">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3126,30 +3147,33 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39">
-        <v>1268</v>
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
       </c>
       <c r="L39">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+      <c r="M39">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3164,30 +3188,33 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
-      </c>
-      <c r="K40">
-        <v>3192</v>
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
       </c>
       <c r="L40">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3287</v>
+      </c>
+      <c r="M40">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3202,30 +3229,33 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
-      </c>
-      <c r="K41">
-        <v>3192</v>
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
       </c>
       <c r="L41">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3287</v>
+      </c>
+      <c r="M41">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3240,30 +3270,33 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
-      </c>
-      <c r="K42">
-        <v>5833</v>
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
       </c>
       <c r="L42">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M42">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3278,30 +3311,33 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
-      </c>
-      <c r="K43">
-        <v>5833</v>
+        <v>283</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
       </c>
       <c r="L43">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M43">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -3316,30 +3352,33 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
-      </c>
-      <c r="K44">
-        <v>595</v>
+        <v>284</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
       </c>
       <c r="L44">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="M44">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -3354,30 +3393,33 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
-      </c>
-      <c r="K45">
-        <v>1069</v>
+        <v>284</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
       </c>
       <c r="L45">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1084</v>
+      </c>
+      <c r="M45">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -3386,36 +3428,39 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>366</v>
-      </c>
-      <c r="K46">
-        <v>1149</v>
+        <v>285</v>
+      </c>
+      <c r="K46" t="s">
+        <v>355</v>
       </c>
       <c r="L46">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1168</v>
+      </c>
+      <c r="M46">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3430,30 +3475,33 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
-      </c>
-      <c r="K47">
-        <v>3946</v>
+        <v>286</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
       </c>
       <c r="L47">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3970</v>
+      </c>
+      <c r="M47">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3468,30 +3516,33 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>363</v>
-      </c>
-      <c r="K48">
-        <v>5833</v>
+        <v>287</v>
+      </c>
+      <c r="K48" t="s">
+        <v>352</v>
       </c>
       <c r="L48">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M48">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3506,30 +3557,33 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49">
-        <v>5833</v>
+        <v>288</v>
+      </c>
+      <c r="K49" t="s">
+        <v>352</v>
       </c>
       <c r="L49">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M49">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3544,30 +3598,33 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>331</v>
-      </c>
-      <c r="K50">
-        <v>101064</v>
+        <v>289</v>
+      </c>
+      <c r="K50" t="s">
+        <v>320</v>
       </c>
       <c r="L50">
-        <v>88489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>101045</v>
+      </c>
+      <c r="M50">
+        <v>88389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3582,30 +3639,33 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>368</v>
-      </c>
-      <c r="K51">
-        <v>1436</v>
+        <v>290</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
       </c>
       <c r="L51">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1432</v>
+      </c>
+      <c r="M51">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -3620,30 +3680,33 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
-      </c>
-      <c r="K52">
-        <v>149</v>
+        <v>291</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
       </c>
       <c r="L52">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="M52">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -3658,30 +3721,33 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>370</v>
-      </c>
-      <c r="K53">
-        <v>292</v>
+        <v>267</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
       </c>
       <c r="L53">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="M53">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3696,30 +3762,33 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
-      </c>
-      <c r="K54">
-        <v>665</v>
+        <v>292</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
       </c>
       <c r="L54">
+        <v>661</v>
+      </c>
+      <c r="M54">
         <v>687</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3734,30 +3803,33 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>340</v>
-      </c>
-      <c r="K55">
-        <v>5408</v>
+        <v>293</v>
+      </c>
+      <c r="K55" t="s">
+        <v>329</v>
       </c>
       <c r="L55">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3329</v>
+      </c>
+      <c r="M55">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -3772,30 +3844,33 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>372</v>
-      </c>
-      <c r="K56">
-        <v>562</v>
+        <v>294</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
       </c>
       <c r="L56">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="M56">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F57">
         <v>11</v>
@@ -3810,30 +3885,33 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>373</v>
-      </c>
-      <c r="K57">
-        <v>390</v>
+        <v>267</v>
+      </c>
+      <c r="K57" t="s">
+        <v>362</v>
       </c>
       <c r="L57">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="M57">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F58">
         <v>11</v>
@@ -3848,30 +3926,33 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>374</v>
-      </c>
-      <c r="K58">
-        <v>1033</v>
+        <v>267</v>
+      </c>
+      <c r="K58" t="s">
+        <v>363</v>
       </c>
       <c r="L58">
+        <v>1032</v>
+      </c>
+      <c r="M58">
         <v>552</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F59">
         <v>11</v>
@@ -3886,30 +3967,33 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>375</v>
-      </c>
-      <c r="K59">
-        <v>1259</v>
+        <v>267</v>
+      </c>
+      <c r="K59" t="s">
+        <v>364</v>
       </c>
       <c r="L59">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1282</v>
+      </c>
+      <c r="M59">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3924,30 +4008,33 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>376</v>
-      </c>
-      <c r="K60">
-        <v>1401</v>
+        <v>286</v>
+      </c>
+      <c r="K60" t="s">
+        <v>365</v>
       </c>
       <c r="L60">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1419</v>
+      </c>
+      <c r="M60">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F61">
         <v>11</v>
@@ -3962,30 +4049,33 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>377</v>
-      </c>
-      <c r="K61">
-        <v>769</v>
+        <v>267</v>
+      </c>
+      <c r="K61" t="s">
+        <v>366</v>
       </c>
       <c r="L61">
+        <v>767</v>
+      </c>
+      <c r="M61">
         <v>603</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4000,30 +4090,33 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>378</v>
-      </c>
-      <c r="K62">
+        <v>295</v>
+      </c>
+      <c r="K62" t="s">
+        <v>367</v>
+      </c>
+      <c r="L62">
         <v>1949</v>
       </c>
-      <c r="L62">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E63" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -4038,30 +4131,33 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>378</v>
-      </c>
-      <c r="K63">
+        <v>294</v>
+      </c>
+      <c r="K63" t="s">
+        <v>367</v>
+      </c>
+      <c r="L63">
         <v>1949</v>
       </c>
-      <c r="L63">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F64">
         <v>11</v>
@@ -4076,30 +4172,33 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>364</v>
-      </c>
-      <c r="K64">
-        <v>595</v>
+        <v>267</v>
+      </c>
+      <c r="K64" t="s">
+        <v>353</v>
       </c>
       <c r="L64">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="M64">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F65">
         <v>11</v>
@@ -4114,30 +4213,33 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>379</v>
-      </c>
-      <c r="K65">
-        <v>1038</v>
+        <v>267</v>
+      </c>
+      <c r="K65" t="s">
+        <v>368</v>
       </c>
       <c r="L65">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1078</v>
+      </c>
+      <c r="M65">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4152,30 +4254,33 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>380</v>
-      </c>
-      <c r="K66">
-        <v>127</v>
+        <v>296</v>
+      </c>
+      <c r="K66" t="s">
+        <v>369</v>
       </c>
       <c r="L66">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="M66">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4190,30 +4295,33 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>381</v>
-      </c>
-      <c r="K67">
-        <v>2144</v>
+        <v>286</v>
+      </c>
+      <c r="K67" t="s">
+        <v>370</v>
       </c>
       <c r="L67">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2176</v>
+      </c>
+      <c r="M67">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F68">
         <v>11</v>
@@ -4228,30 +4336,33 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>382</v>
-      </c>
-      <c r="K68">
-        <v>571</v>
+        <v>267</v>
+      </c>
+      <c r="K68" t="s">
+        <v>371</v>
       </c>
       <c r="L68">
+        <v>575</v>
+      </c>
+      <c r="M68">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4266,30 +4377,33 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>383</v>
-      </c>
-      <c r="K69">
-        <v>1088</v>
+        <v>297</v>
+      </c>
+      <c r="K69" t="s">
+        <v>372</v>
       </c>
       <c r="L69">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1084</v>
+      </c>
+      <c r="M69">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4304,30 +4418,33 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>384</v>
-      </c>
-      <c r="K70">
-        <v>821</v>
+        <v>286</v>
+      </c>
+      <c r="K70" t="s">
+        <v>373</v>
       </c>
       <c r="L70">
+        <v>824</v>
+      </c>
+      <c r="M70">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="F71">
         <v>11</v>
@@ -4342,30 +4459,33 @@
         <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>385</v>
-      </c>
-      <c r="K71">
-        <v>108276</v>
+        <v>286</v>
+      </c>
+      <c r="K71" t="s">
+        <v>374</v>
       </c>
       <c r="L71">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>108471</v>
+      </c>
+      <c r="M71">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4380,30 +4500,33 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>386</v>
-      </c>
-      <c r="K72">
-        <v>83</v>
+        <v>298</v>
+      </c>
+      <c r="K72" t="s">
+        <v>375</v>
       </c>
       <c r="L72">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="M72">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -4418,30 +4541,33 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>387</v>
-      </c>
-      <c r="K73">
-        <v>452</v>
+        <v>299</v>
+      </c>
+      <c r="K73" t="s">
+        <v>376</v>
       </c>
       <c r="L73">
+        <v>464</v>
+      </c>
+      <c r="M73">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4456,30 +4582,33 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>388</v>
-      </c>
-      <c r="K74">
+        <v>300</v>
+      </c>
+      <c r="K74" t="s">
+        <v>377</v>
+      </c>
+      <c r="L74">
         <v>191</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4494,30 +4623,33 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>389</v>
-      </c>
-      <c r="K75">
-        <v>430</v>
+        <v>301</v>
+      </c>
+      <c r="K75" t="s">
+        <v>378</v>
       </c>
       <c r="L75">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="M75">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4532,30 +4664,33 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>390</v>
-      </c>
-      <c r="K76">
-        <v>731</v>
+        <v>302</v>
+      </c>
+      <c r="K76" t="s">
+        <v>379</v>
       </c>
       <c r="L76">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="M76">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4570,30 +4705,33 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>362</v>
-      </c>
-      <c r="K77">
-        <v>3192</v>
+        <v>303</v>
+      </c>
+      <c r="K77" t="s">
+        <v>351</v>
       </c>
       <c r="L77">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3287</v>
+      </c>
+      <c r="M77">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4608,30 +4746,33 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>363</v>
-      </c>
-      <c r="K78">
-        <v>5833</v>
+        <v>304</v>
+      </c>
+      <c r="K78" t="s">
+        <v>352</v>
       </c>
       <c r="L78">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M78">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4646,30 +4787,33 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>391</v>
-      </c>
-      <c r="K79">
-        <v>146</v>
+        <v>305</v>
+      </c>
+      <c r="K79" t="s">
+        <v>380</v>
       </c>
       <c r="L79">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="M79">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4684,30 +4828,33 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>392</v>
-      </c>
-      <c r="K80">
-        <v>2293</v>
+        <v>306</v>
+      </c>
+      <c r="K80" t="s">
+        <v>381</v>
       </c>
       <c r="L80">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2277</v>
+      </c>
+      <c r="M80">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E81" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4722,30 +4869,33 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>393</v>
-      </c>
-      <c r="K81">
-        <v>101</v>
+        <v>307</v>
+      </c>
+      <c r="K81" t="s">
+        <v>382</v>
       </c>
       <c r="L81">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="M81">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4760,30 +4910,33 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>394</v>
-      </c>
-      <c r="K82">
-        <v>292</v>
+        <v>308</v>
+      </c>
+      <c r="K82" t="s">
+        <v>383</v>
       </c>
       <c r="L82">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="M82">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4798,30 +4951,33 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>363</v>
-      </c>
-      <c r="K83">
-        <v>5833</v>
+        <v>309</v>
+      </c>
+      <c r="K83" t="s">
+        <v>352</v>
       </c>
       <c r="L83">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5821</v>
+      </c>
+      <c r="M83">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4836,30 +4992,33 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>392</v>
-      </c>
-      <c r="K84">
-        <v>2293</v>
+        <v>310</v>
+      </c>
+      <c r="K84" t="s">
+        <v>381</v>
       </c>
       <c r="L84">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2277</v>
+      </c>
+      <c r="M84">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E85" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4874,30 +5033,33 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>391</v>
-      </c>
-      <c r="K85">
-        <v>146</v>
+        <v>311</v>
+      </c>
+      <c r="K85" t="s">
+        <v>380</v>
       </c>
       <c r="L85">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="M85">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F86">
         <v>5</v>
@@ -4912,30 +5074,33 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>395</v>
-      </c>
-      <c r="K86">
+        <v>266</v>
+      </c>
+      <c r="K86" t="s">
+        <v>384</v>
+      </c>
+      <c r="L86">
         <v>498</v>
       </c>
-      <c r="L86">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4950,17 +5115,19 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>371</v>
-      </c>
-      <c r="K87">
-        <v>665</v>
+        <v>312</v>
+      </c>
+      <c r="K87" t="s">
+        <v>360</v>
       </c>
       <c r="L87">
+        <v>661</v>
+      </c>
+      <c r="M87">
         <v>687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Crawling_Twitter Academic Track/Twitter_data.xlsx
+++ b/Crawling_Twitter Academic Track/Twitter_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -103,9 +103,6 @@
     <t>1477654935298838532</t>
   </si>
   <si>
-    <t>1477640029266657282</t>
-  </si>
-  <si>
     <t>1477639295485853696</t>
   </si>
   <si>
@@ -118,18 +115,9 @@
     <t>1477587220068450304</t>
   </si>
   <si>
-    <t>1477583250428157953</t>
-  </si>
-  <si>
-    <t>1477578891338436608</t>
-  </si>
-  <si>
     <t>1477575842062651394</t>
   </si>
   <si>
-    <t>1477573408628121603</t>
-  </si>
-  <si>
     <t>1477570051779792898</t>
   </si>
   <si>
@@ -178,6 +166,9 @@
     <t>1477510025765609475</t>
   </si>
   <si>
+    <t>1477507276437135362</t>
+  </si>
+  <si>
     <t>1477495792487350272</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>1477383860627386368</t>
   </si>
   <si>
-    <t>1477364981054197761</t>
-  </si>
-  <si>
     <t>1477358275373023239</t>
   </si>
   <si>
@@ -265,24 +253,15 @@
     <t>1477301109190541315</t>
   </si>
   <si>
-    <t>1477293850435764229</t>
-  </si>
-  <si>
     <t>1477213010351562754</t>
   </si>
   <si>
-    <t>1477208913623670786</t>
-  </si>
-  <si>
     <t>1477191460781015044</t>
   </si>
   <si>
     <t>1477163109001351168</t>
   </si>
   <si>
-    <t>1477162728791977986</t>
-  </si>
-  <si>
     <t>1477152275294474244</t>
   </si>
   <si>
@@ -361,9 +340,6 @@
     <t>1452638883976519684</t>
   </si>
   <si>
-    <t>1274248967644237825</t>
-  </si>
-  <si>
     <t>385325759</t>
   </si>
   <si>
@@ -376,18 +352,9 @@
     <t>1920305857</t>
   </si>
   <si>
-    <t>1210042853340143616</t>
-  </si>
-  <si>
-    <t>1322114984084705280</t>
-  </si>
-  <si>
     <t>835517790</t>
   </si>
   <si>
-    <t>1327571198344122368</t>
-  </si>
-  <si>
     <t>550061843</t>
   </si>
   <si>
@@ -430,6 +397,9 @@
     <t>18586040</t>
   </si>
   <si>
+    <t>299123939</t>
+  </si>
+  <si>
     <t>965008485795627009</t>
   </si>
   <si>
@@ -448,9 +418,6 @@
     <t>350430192</t>
   </si>
   <si>
-    <t>1170664621</t>
-  </si>
-  <si>
     <t>539649365</t>
   </si>
   <si>
@@ -499,15 +466,9 @@
     <t>3187193527</t>
   </si>
   <si>
-    <t>2827544733</t>
-  </si>
-  <si>
     <t>2813675057</t>
   </si>
   <si>
-    <t>141439439</t>
-  </si>
-  <si>
     <t>156050161</t>
   </si>
   <si>
@@ -577,9 +538,6 @@
     <t>2022-01-02T14:56:04.000Z</t>
   </si>
   <si>
-    <t>2022-01-02T13:56:50.000Z</t>
-  </si>
-  <si>
     <t>2022-01-02T13:53:55.000Z</t>
   </si>
   <si>
@@ -592,18 +550,9 @@
     <t>2022-01-02T10:27:00.000Z</t>
   </si>
   <si>
-    <t>2022-01-02T10:11:13.000Z</t>
-  </si>
-  <si>
-    <t>2022-01-02T09:53:54.000Z</t>
-  </si>
-  <si>
     <t>2022-01-02T09:41:47.000Z</t>
   </si>
   <si>
-    <t>2022-01-02T09:32:07.000Z</t>
-  </si>
-  <si>
     <t>2022-01-02T09:18:46.000Z</t>
   </si>
   <si>
@@ -649,6 +598,9 @@
     <t>2022-01-02T05:20:15.000Z</t>
   </si>
   <si>
+    <t>2022-01-02T05:09:20.000Z</t>
+  </si>
+  <si>
     <t>2022-01-02T04:23:42.000Z</t>
   </si>
   <si>
@@ -676,9 +628,6 @@
     <t>2022-01-01T20:58:55.000Z</t>
   </si>
   <si>
-    <t>2022-01-01T19:43:54.000Z</t>
-  </si>
-  <si>
     <t>2022-01-01T19:17:15.000Z</t>
   </si>
   <si>
@@ -736,24 +685,15 @@
     <t>2022-01-01T15:30:06.000Z</t>
   </si>
   <si>
-    <t>2022-01-01T15:01:15.000Z</t>
-  </si>
-  <si>
     <t>2022-01-01T09:40:01.000Z</t>
   </si>
   <si>
-    <t>2022-01-01T09:23:44.000Z</t>
-  </si>
-  <si>
     <t>2022-01-01T08:14:23.000Z</t>
   </si>
   <si>
     <t>2022-01-01T06:21:44.000Z</t>
   </si>
   <si>
-    <t>2022-01-01T06:20:13.000Z</t>
-  </si>
-  <si>
     <t>2022-01-01T05:38:41.000Z</t>
   </si>
   <si>
@@ -796,13 +736,16 @@
     <t>I didn’t realised you got tax credits for lying into a private pension?? And I have been for the last two years lol I’m just after adding it to revenue now, will I get some gorge money back? X</t>
   </si>
   <si>
-    <t>ACCIDENT ALERT EIGHT-Dead this morning at Musembe along Webuye - Eldoret Hwy after a shuttle from Bungoma headed Nairobi rams into two parked trucks . https://t.co/hms8A6Q8BX</t>
+    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya To God everything in prayer 🙏</t>
   </si>
   <si>
     <t>RT @PRSA_Roadsafety Let be honest PSV drivers are the most dangerous drivers on our roads but cos they are protected they do whatever they feel like wasting lives of others 😢😥 https://t.co/CPRRWvkQPi</t>
   </si>
   <si>
     <t>You’ve heard of the “Great Resignation,” but are you ready to be a part of the “Great Retention?” Offering PRSA memberships to your employees is a great way to incentivize and develop your PR team! Learnn more&amp;gt;&amp;gt; https://t.co/rKlTLP2isM https://t.co/ndPJ7caQkd</t>
+  </si>
+  <si>
+    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya It was a tragic as we lost our sister cousin(Margaret) of NYS together with her sibling may their souls rest in peace😭😭</t>
   </si>
   <si>
     <t>RT @PRSA_Roadsafety Chaotic, Madness , craziness due to total lack of leadership=ugali roads=lot of blood and tears on our roads https://t.co/W9T3gKJddO</t>
@@ -839,21 +782,22 @@
  How big.</t>
   </si>
   <si>
-    <t>RT @papafavour Many feared dead this morning at Musembe along Webuye - Eldoret Highway after a shuttle (2NK Sacco) from Bungoma headed Nairobi rammed into two parked trucks.
-@Ma3Route @KenyanTraffic @sikikasafety @AccidentAlert_K @PRSA_Roadsafety @motoristsoffice @KTA_Kenya @NyanzaTraffic https://t.co/xz6CJSyH32</t>
-  </si>
-  <si>
     <t>Many feared dead this morning at Musembe along Webuye - Eldoret Highway after a shuttle (2NK Sacco) from Bungoma headed Nairobi rammed into two parked trucks.
 @Ma3Route @KenyanTraffic @sikikasafety @AccidentAlert_K @PRSA_Roadsafety @motoristsoffice @KTA_Kenya @NyanzaTraffic https://t.co/xz6CJSyH32</t>
   </si>
   <si>
+    <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya Speed kills</t>
+  </si>
+  <si>
     <t>An accident on the Nairobi Nakuru highway, about a kilometer from the Soko mjinga area. @PRSA_Roadsafety https://t.co/TFGM7q5HGt</t>
   </si>
   <si>
     <t>@AccidentAlert_K @sikikasafety @road_driving @ntsa_kenya @TIPSIKenya @PRSA_Roadsafety @motoristsoffice @NyanzaTraffic @NorthernCoridor @KTA_Kenya Speed kills. There are bumps at the place and it's a shopping center with trucks parked especially morning hours .... See buildings both sides.</t>
   </si>
   <si>
-    <t>#NyanzaTraffic ACCIDENT ALERT EIGHT-Dead this morning at Musembe along Webuye - Eldoret Hwy after a shuttle from Bungoma headed Nairobi rams into two parked trucks. https://t.co/CG5iG8dCFZ</t>
+    <t>@NyanzaTraffic @sikikasafety @road_driving @ntsa_kenya @PRSA_Roadsafety @roadsvolunteer @motoristsoffice @KTA_Kenya This is sad.
+We must #share the #road #safely
+#LifeisPrecious</t>
   </si>
   <si>
     <t>RT @PRSA_Roadsafety As usual we start counting people dying on our roads question is for how long???😢😥 https://t.co/181wOJoHW4</t>
@@ -923,7 +867,7 @@
     <t>RT @prsa_pag 2021 was one for the books! As we put a bow on it, we look back at the year that was for @prsa_pag. We can't wait to see what 2022 has in store. See you there! #yearinreview #HappyNewYear #publicaffairs #government #publicrelations https://t.co/3vyu92q7eY</t>
   </si>
   <si>
-    <t>@edzitron wait, we have a code of ethics?</t>
+    <t>@JGfromOC @edzitron Yeah I’ve never seen that before. Maybe they pass it out at all the PRSA events I never attend?</t>
   </si>
   <si>
     <t>Happy new year from PRSA Iowa! We can't wait to see what 2022 brings! https://t.co/GFe2bM9F1J</t>
@@ -931,10 +875,6 @@
   <si>
     <t>Here's to excellent health and amazing wealth in 2022.🙏🏾 
 #Happy2022 #lgprlv #lasvegasbusiness #prsa #vegas https://t.co/a1mEuHWEYB</t>
-  </si>
-  <si>
-    <t>#HappyNewYear to our #PAG members! As we begin a #newyear, may it be filled with joy, prosperity, health, &amp;amp; adventure. From @prsa_pag, 2022 let's move forward!
-#publicrelations #communications #publicaffairs #government #communityrelations #newyear2022 #newyearsday https://t.co/1vLmnpj8Z7</t>
   </si>
   <si>
     <t>Hi,
@@ -944,16 +884,10 @@
 https://t.co/yDPs6h7YFq</t>
   </si>
   <si>
-    <t>The @GreenPartyUS should be leading on PR. Some Congressional Democrats would be perfectly willing to work with them. But it’s up to Greens to signal they’d be coalition partners. Reform won’t come from a single party alone... nor from a bipartisan coalition. Buy my book in 2022.</t>
-  </si>
-  <si>
     <t>RT @PRSA_SA Hello 2️⃣0️⃣2️⃣2️⃣ 💫🥂 Wishing everyone a Happy #NewYear! 🎉 https://t.co/VqwJaiYQkd</t>
   </si>
   <si>
     <t>RT @pr_jobs [USA] Public Relations (PR) Specialist - Terran Orbital - Boca Raton, FL https://t.co/7ZC0D7iijX #pr #jobs</t>
-  </si>
-  <si>
-    <t>[USA] Public Relations (PR) Specialist - Terran Orbital - Boca Raton, FL https://t.co/7ZC0D7iijX #pr #jobs</t>
   </si>
   <si>
     <t>RT @PRSAHealth Happy New Year to PRSA Health Academy members!  To @PRSA and PR pro’s in health care comms, make it your 2022 resolution to join the Health Academy! https://t.co/hMhxAwfTTe https://t.co/ZYAdZoFR07</t>
@@ -1037,9 +971,6 @@
     <t>usakenshin</t>
   </si>
   <si>
-    <t>OuteringRoadKE</t>
-  </si>
-  <si>
     <t>papafavour</t>
   </si>
   <si>
@@ -1052,18 +983,9 @@
     <t>lepolos1</t>
   </si>
   <si>
-    <t>AccidentAlert_K</t>
-  </si>
-  <si>
-    <t>mwanaumenagari</t>
-  </si>
-  <si>
     <t>Balalasimon</t>
   </si>
   <si>
-    <t>ValentineMwamb3</t>
-  </si>
-  <si>
     <t>alex_ngaira</t>
   </si>
   <si>
@@ -1106,6 +1028,9 @@
     <t>pr_jobs</t>
   </si>
   <si>
+    <t>adriennefoley66</t>
+  </si>
+  <si>
     <t>professordavem</t>
   </si>
   <si>
@@ -1124,13 +1049,10 @@
     <t>ANPCatherine</t>
   </si>
   <si>
-    <t>UMU_PRSSA</t>
-  </si>
-  <si>
     <t>UMDearbornPRSSA</t>
   </si>
   <si>
-    <t>ufgirl81</t>
+    <t>ufcommunigator</t>
   </si>
   <si>
     <t>Ceciliafay_</t>
@@ -1175,13 +1097,7 @@
     <t>LgprConsulting</t>
   </si>
   <si>
-    <t>prsa_pag</t>
-  </si>
-  <si>
     <t>evamwambene</t>
-  </si>
-  <si>
-    <t>Melbcity</t>
   </si>
   <si>
     <t>UTCheadle</t>
@@ -1557,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,13 +1525,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1630,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="L2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M2">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1650,13 +1566,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1665,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1691,16 +1607,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1712,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="K4" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="L4">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="M4">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1732,13 +1648,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1753,16 +1669,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K5" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L5">
-        <v>2405</v>
+        <v>2374</v>
       </c>
       <c r="M5">
-        <v>1518</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1773,13 +1689,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1788,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K6" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L6">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M6">
-        <v>1250</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1814,13 +1730,13 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1835,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="L7">
-        <v>4004</v>
+        <v>4252</v>
       </c>
       <c r="M7">
-        <v>1001</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1855,13 +1771,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1876,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K8" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="L8">
-        <v>3257</v>
+        <v>4323</v>
       </c>
       <c r="M8">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1896,13 +1812,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1917,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="K9" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="L9">
-        <v>101045</v>
+        <v>100236</v>
       </c>
       <c r="M9">
-        <v>88389</v>
+        <v>87262</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1937,13 +1853,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1958,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="K10" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="L10">
-        <v>68500</v>
+        <v>73089</v>
       </c>
       <c r="M10">
-        <v>7732</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1978,16 +1894,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1999,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="K11" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="L11">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M11">
-        <v>2451</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2019,13 +1935,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2040,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="K12" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="L12">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M12">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2060,13 +1976,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -2081,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K13" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="L13">
-        <v>1815</v>
+        <v>1786</v>
       </c>
       <c r="M13">
-        <v>2870</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2101,13 +2017,13 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -2122,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K14" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="L14">
-        <v>2744</v>
+        <v>2732</v>
       </c>
       <c r="M14">
-        <v>1058</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2142,16 +2058,16 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2163,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="K15" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>416</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2183,13 +2099,13 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2204,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="L16">
-        <v>6116</v>
+        <v>6614</v>
       </c>
       <c r="M16">
-        <v>1280</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2224,13 +2140,13 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2245,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="L17">
-        <v>1659</v>
+        <v>2373</v>
       </c>
       <c r="M17">
-        <v>4986</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2265,13 +2181,13 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2286,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="K18" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="L18">
-        <v>3329</v>
+        <v>2800</v>
       </c>
       <c r="M18">
-        <v>418</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2306,37 +2222,37 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="K19" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="L19">
-        <v>2770</v>
+        <v>13065</v>
       </c>
       <c r="M19">
-        <v>2616</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2347,37 +2263,37 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="K20" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="L20">
-        <v>13188</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>9908</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2388,13 +2304,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2403,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="L21">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="M21">
-        <v>186</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2429,13 +2345,13 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2450,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K22" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L22">
-        <v>420</v>
+        <v>86</v>
       </c>
       <c r="M22">
-        <v>1488</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2470,13 +2386,13 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2485,22 +2401,22 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>2242</v>
       </c>
       <c r="M23">
-        <v>164</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2511,37 +2427,37 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L24">
-        <v>3976</v>
+        <v>201</v>
       </c>
       <c r="M24">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2552,13 +2468,13 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2567,22 +2483,22 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>892</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2593,13 +2509,13 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2608,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="L26">
-        <v>2222</v>
+        <v>733</v>
       </c>
       <c r="M26">
-        <v>4985</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2634,13 +2550,13 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2649,22 +2565,22 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="L27">
-        <v>872</v>
+        <v>2138</v>
       </c>
       <c r="M27">
-        <v>387</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2675,37 +2591,37 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>255</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>13</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>274</v>
-      </c>
       <c r="K28" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="L28">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M28">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2716,13 +2632,13 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2731,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="L29">
-        <v>858</v>
+        <v>178</v>
       </c>
       <c r="M29">
-        <v>3217</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2757,13 +2673,13 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2772,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L30">
-        <v>520</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>307</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2798,16 +2714,16 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2819,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L31">
-        <v>1882</v>
+        <v>540</v>
       </c>
       <c r="M31">
-        <v>2177</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2839,37 +2755,37 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="L32">
-        <v>165</v>
+        <v>1673</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2880,37 +2796,37 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>6898</v>
       </c>
       <c r="M33">
-        <v>549</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2921,13 +2837,13 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2936,22 +2852,22 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>1089</v>
       </c>
       <c r="M34">
-        <v>134</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2962,13 +2878,13 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2983,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L35">
-        <v>497</v>
+        <v>1302</v>
       </c>
       <c r="M35">
-        <v>535</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3003,37 +2919,37 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="L36">
-        <v>1554</v>
+        <v>3335</v>
       </c>
       <c r="M36">
-        <v>1855</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3044,13 +2960,13 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3065,16 +2981,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L37">
-        <v>6860</v>
+        <v>3335</v>
       </c>
       <c r="M37">
-        <v>4278</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3085,16 +3001,16 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3106,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="L38">
-        <v>1034</v>
+        <v>5746</v>
       </c>
       <c r="M38">
-        <v>2554</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3126,13 +3042,13 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3147,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="L39">
-        <v>1279</v>
+        <v>5746</v>
       </c>
       <c r="M39">
-        <v>1749</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3167,16 +3083,16 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3188,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="L40">
-        <v>3287</v>
+        <v>156</v>
       </c>
       <c r="M40">
-        <v>2265</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3208,16 +3124,16 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3229,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="L41">
-        <v>3287</v>
+        <v>616</v>
       </c>
       <c r="M41">
-        <v>2265</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3249,16 +3165,16 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3270,16 +3186,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="L42">
-        <v>5821</v>
+        <v>1110</v>
       </c>
       <c r="M42">
-        <v>3292</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3290,37 +3206,37 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="L43">
-        <v>5821</v>
+        <v>1199</v>
       </c>
       <c r="M43">
-        <v>3292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3331,37 +3247,37 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="L44">
-        <v>615</v>
+        <v>3918</v>
       </c>
       <c r="M44">
-        <v>688</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3372,16 +3288,16 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3393,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K45" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="L45">
-        <v>1084</v>
+        <v>5746</v>
       </c>
       <c r="M45">
-        <v>2344</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3413,37 +3329,37 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K46" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="L46">
-        <v>1168</v>
+        <v>5746</v>
       </c>
       <c r="M46">
-        <v>310</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3454,13 +3370,13 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3469,22 +3385,22 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="K47" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="L47">
-        <v>3970</v>
+        <v>100236</v>
       </c>
       <c r="M47">
-        <v>2533</v>
+        <v>87262</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3495,13 +3411,13 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3510,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="L48">
-        <v>5821</v>
+        <v>1439</v>
       </c>
       <c r="M48">
-        <v>3292</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3536,16 +3452,16 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3557,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L49">
-        <v>5821</v>
+        <v>184</v>
       </c>
       <c r="M49">
-        <v>3292</v>
+        <v>855</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3577,13 +3493,13 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3598,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K50" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L50">
-        <v>101045</v>
+        <v>667</v>
       </c>
       <c r="M50">
-        <v>88389</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3618,13 +3534,13 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3633,22 +3549,22 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="L51">
-        <v>1432</v>
+        <v>2800</v>
       </c>
       <c r="M51">
-        <v>665</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3659,16 +3575,16 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3680,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="L52">
-        <v>158</v>
+        <v>584</v>
       </c>
       <c r="M52">
-        <v>822</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3700,13 +3616,13 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -3721,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K53" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="L53">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="M53">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3741,16 +3657,16 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3762,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K54" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="L54">
-        <v>661</v>
+        <v>1014</v>
       </c>
       <c r="M54">
-        <v>687</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3782,16 +3698,16 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3803,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="K55" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L55">
-        <v>3329</v>
+        <v>1286</v>
       </c>
       <c r="M55">
-        <v>418</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3823,37 +3739,37 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="K56" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="L56">
-        <v>573</v>
+        <v>1413</v>
       </c>
       <c r="M56">
-        <v>1022</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3864,13 +3780,13 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F57">
         <v>11</v>
@@ -3885,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K57" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="L57">
-        <v>392</v>
+        <v>750</v>
       </c>
       <c r="M57">
-        <v>392</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3905,16 +3821,16 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3926,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K58" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="L58">
-        <v>1032</v>
+        <v>1930</v>
       </c>
       <c r="M58">
-        <v>552</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3946,16 +3862,16 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3967,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K59" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L59">
-        <v>1282</v>
+        <v>1930</v>
       </c>
       <c r="M59">
-        <v>3915</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3987,37 +3903,37 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="K60" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="L60">
-        <v>1419</v>
+        <v>616</v>
       </c>
       <c r="M60">
-        <v>325</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4028,13 +3944,13 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F61">
         <v>11</v>
@@ -4049,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K61" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="L61">
-        <v>767</v>
+        <v>1084</v>
       </c>
       <c r="M61">
-        <v>603</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4069,20 +3985,20 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>1</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
@@ -4090,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="K62" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="L62">
-        <v>1949</v>
+        <v>179</v>
       </c>
       <c r="M62">
-        <v>4998</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4110,16 +4026,16 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -4131,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="K63" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="L63">
-        <v>1949</v>
+        <v>2112</v>
       </c>
       <c r="M63">
-        <v>4998</v>
+        <v>897</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4151,13 +4067,13 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F64">
         <v>11</v>
@@ -4172,16 +4088,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K64" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L64">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="M64">
-        <v>688</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4192,37 +4108,37 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K65" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="L65">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="M65">
-        <v>707</v>
+        <v>841</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4233,19 +4149,19 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4254,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="K66" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="L66">
-        <v>142</v>
+        <v>815</v>
       </c>
       <c r="M66">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4274,37 +4190,37 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="K67" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="L67">
-        <v>2176</v>
+        <v>107071</v>
       </c>
       <c r="M67">
-        <v>924</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4315,16 +4231,16 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4336,16 +4252,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K68" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="L68">
-        <v>575</v>
+        <v>88</v>
       </c>
       <c r="M68">
-        <v>284</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4356,13 +4272,13 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4377,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K69" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L69">
-        <v>1084</v>
+        <v>191</v>
       </c>
       <c r="M69">
-        <v>852</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4397,16 +4313,16 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4418,16 +4334,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K70" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="L70">
-        <v>824</v>
+        <v>706</v>
       </c>
       <c r="M70">
-        <v>182</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4438,37 +4354,37 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K71" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L71">
-        <v>108471</v>
+        <v>3335</v>
       </c>
       <c r="M71">
-        <v>638</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4479,16 +4395,16 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4500,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="K72" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="L72">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M72">
-        <v>373</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4520,37 +4436,37 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="K73" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="L73">
-        <v>464</v>
+        <v>2229</v>
       </c>
       <c r="M73">
-        <v>99</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4561,13 +4477,13 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4576,22 +4492,22 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="K74" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="L74">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="M74">
-        <v>510</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4602,13 +4518,13 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4623,16 +4539,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K75" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="L75">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="M75">
-        <v>457</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4643,16 +4559,16 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4664,16 +4580,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="L76">
-        <v>727</v>
+        <v>5746</v>
       </c>
       <c r="M76">
-        <v>438</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4684,13 +4600,13 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4705,16 +4621,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="K77" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L77">
-        <v>3287</v>
+        <v>2229</v>
       </c>
       <c r="M77">
-        <v>2265</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4725,13 +4641,13 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4740,22 +4656,22 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="K78" t="s">
         <v>352</v>
       </c>
       <c r="L78">
-        <v>5821</v>
+        <v>195</v>
       </c>
       <c r="M78">
-        <v>3292</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4766,16 +4682,16 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4787,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="K79" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="L79">
-        <v>152</v>
+        <v>507</v>
       </c>
       <c r="M79">
-        <v>1141</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4807,324 +4723,37 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D80" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>1</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="K80" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="L80">
-        <v>2277</v>
+        <v>667</v>
       </c>
       <c r="M80">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" t="s">
-        <v>257</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>307</v>
-      </c>
-      <c r="K81" t="s">
-        <v>382</v>
-      </c>
-      <c r="L81">
-        <v>97</v>
-      </c>
-      <c r="M81">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>249</v>
-      </c>
-      <c r="E82" t="s">
-        <v>255</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>308</v>
-      </c>
-      <c r="K82" t="s">
-        <v>383</v>
-      </c>
-      <c r="L82">
-        <v>305</v>
-      </c>
-      <c r="M82">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" t="s">
-        <v>250</v>
-      </c>
-      <c r="E83" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>309</v>
-      </c>
-      <c r="K83" t="s">
-        <v>352</v>
-      </c>
-      <c r="L83">
-        <v>5821</v>
-      </c>
-      <c r="M83">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" t="s">
-        <v>251</v>
-      </c>
-      <c r="E84" t="s">
-        <v>256</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>310</v>
-      </c>
-      <c r="K84" t="s">
-        <v>381</v>
-      </c>
-      <c r="L84">
-        <v>2277</v>
-      </c>
-      <c r="M84">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" t="s">
-        <v>252</v>
-      </c>
-      <c r="E85" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>311</v>
-      </c>
-      <c r="K85" t="s">
-        <v>380</v>
-      </c>
-      <c r="L85">
-        <v>152</v>
-      </c>
-      <c r="M85">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>266</v>
-      </c>
-      <c r="K86" t="s">
-        <v>384</v>
-      </c>
-      <c r="L86">
-        <v>498</v>
-      </c>
-      <c r="M86">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>254</v>
-      </c>
-      <c r="E87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>312</v>
-      </c>
-      <c r="K87" t="s">
-        <v>360</v>
-      </c>
-      <c r="L87">
-        <v>661</v>
-      </c>
-      <c r="M87">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
